--- a/product/report/reportSale-18.3.2005-18.3.2005.xlsx
+++ b/product/report/reportSale-18.3.2005-18.3.2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Available</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -34,24 +31,123 @@
     <t>Total Income</t>
   </si>
   <si>
+    <t>c3e2obiciaeng9b27p8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Camomile Tea </t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27p5g</t>
+  </si>
+  <si>
+    <t>Hot Cappuccino (Small)</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27p70</t>
+  </si>
+  <si>
+    <t>Latte Frappe</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27pcg</t>
+  </si>
+  <si>
+    <t>Iced Fresh Milk</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>22500</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27pfg</t>
+  </si>
+  <si>
+    <t>Lychee Juice</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27peg</t>
+  </si>
+  <si>
+    <t>Iced Chocolate</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27p90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Jasmin Green Tea </t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27pa0</t>
+  </si>
+  <si>
+    <t>Hot Milk Green Tea (Large)</t>
+  </si>
+  <si>
     <t>c3e2obiciaeng9b27pdg</t>
   </si>
   <si>
     <t>Hot Chocolate (Small)</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>16000</t>
   </si>
   <si>
+    <t>c3e2obiciaeng9b27p4g</t>
+  </si>
+  <si>
+    <t>Iced Cappuccino</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27p6g</t>
+  </si>
+  <si>
+    <t>Iced Latte</t>
+  </si>
+  <si>
+    <t>6500</t>
+  </si>
+  <si>
     <t>c3e2obiciaeng9b27p1k</t>
   </si>
   <si>
@@ -61,64 +157,46 @@
     <t>5500</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>11000</t>
   </si>
   <si>
+    <t>c3e2obiciaeng9b27pf0</t>
+  </si>
+  <si>
+    <t>Chocolate Frappe</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>33000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27p2k</t>
+  </si>
+  <si>
+    <t>Hot Americano (Large)</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27pbg</t>
+  </si>
+  <si>
+    <t>Hot Fresh Milk (Small)</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
     <t>c3e2obiciaeng9b27p40</t>
   </si>
   <si>
     <t>Hot Espresso</t>
   </si>
   <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27pfg</t>
-  </si>
-  <si>
-    <t>Lychee Juice</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27peg</t>
-  </si>
-  <si>
-    <t>Iced Chocolate</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27p4g</t>
-  </si>
-  <si>
-    <t>Iced Cappuccino</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27p90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Jasmin Green Tea </t>
-  </si>
-  <si>
-    <t>8000</t>
+    <t>c3e2obiciaeng9b27p60</t>
+  </si>
+  <si>
+    <t>Hot Cappuccino (Large)</t>
   </si>
   <si>
     <t>c3e2obiciaeng9b27pe0</t>
@@ -127,25 +205,31 @@
     <t>Hot Chocolate (Large)</t>
   </si>
   <si>
-    <t>c3e2obiciaeng9b27pcg</t>
-  </si>
-  <si>
-    <t>Iced Fresh Milk</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>22500</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27pa0</t>
-  </si>
-  <si>
-    <t>Hot Milk Green Tea (Large)</t>
+    <t>c3e2obiciaeng9b27pc0</t>
+  </si>
+  <si>
+    <t>Hot Fresh Milk (Large)</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27p50</t>
+  </si>
+  <si>
+    <t>Cappuccino Frappe</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>c3e2obiciaeng9b27pb0</t>
+  </si>
+  <si>
+    <t>Milk Green Tea Frappe</t>
   </si>
   <si>
     <t>c3e2obiciaeng9b27pag</t>
@@ -154,100 +238,13 @@
     <t>Iced Milk Green Tea</t>
   </si>
   <si>
-    <t>c3e2obiciaeng9b27p6g</t>
-  </si>
-  <si>
-    <t>latte</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>6500</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27pbg</t>
-  </si>
-  <si>
-    <t>Hot Fresh Milk (Small)</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27pb0</t>
-  </si>
-  <si>
-    <t>Milk Green Tea Frappe</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27p8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Camomile Tea </t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27p5g</t>
-  </si>
-  <si>
-    <t>Hot Cappuccino (Small)</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27pc0</t>
-  </si>
-  <si>
-    <t>Hot Fresh Milk (Large)</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27p50</t>
-  </si>
-  <si>
-    <t>Cappuccino Frappe</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27pf0</t>
-  </si>
-  <si>
-    <t>Chocolate Frappe</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>33000</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27p70</t>
-  </si>
-  <si>
-    <t>Latte Frappe</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>28000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>267000</t>
+    <t>55</t>
+  </si>
+  <si>
+    <t>282500</t>
   </si>
 </sst>
 </file>
@@ -583,428 +580,396 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
